--- a/2018_CCSB_LoadsData_WY2010-2017/Model Stats_rloadest/1_wy2016_2017/1_pTHg Model Results.xlsx
+++ b/2018_CCSB_LoadsData_WY2010-2017/Model Stats_rloadest/1_wy2016_2017/1_pTHg Model Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slrose\R\2018_CCSB_LoadsData_WY2010-2017\Model Stats_rloadest\1_wy2016_2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2848F110-258A-4C48-A27F-A8D193D0F295}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{47A4184C-86CB-49BF-8D45-00BA4B63D45F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="990" yWindow="30" windowWidth="9630" windowHeight="13440" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,14 +17,14 @@
     <sheet name="Inlet" sheetId="3" r:id="rId2"/>
     <sheet name="Spillway" sheetId="4" r:id="rId3"/>
     <sheet name="Outlet" sheetId="5" r:id="rId4"/>
-    <sheet name="Combined" sheetId="6" r:id="rId5"/>
+    <sheet name="Combined" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="840">
   <si>
     <t>Model #</t>
   </si>
@@ -1991,57 +1991,6 @@
     <t>&gt; pTHg_Combinedm1</t>
   </si>
   <si>
-    <t xml:space="preserve">           Number of Observations: 16</t>
-  </si>
-  <si>
-    <t>Number of Uncensored Observations: 16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           Center of Decimal Time: 2016.652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                  Center of ln(Q): 7.3403</t>
-  </si>
-  <si>
-    <t>(Intercept)   -2.236     0.2565  -8.714       0</t>
-  </si>
-  <si>
-    <t>lnQ            1.702     0.1686  10.098       0</t>
-  </si>
-  <si>
-    <t>Residual variance: 0.8284</t>
-  </si>
-  <si>
-    <t>R-squared: 87.93 percent</t>
-  </si>
-  <si>
-    <t>G-squared: 33.83 on 1 degrees of freedom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  r = 0.9173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  p-value = 0.012</t>
-  </si>
-  <si>
-    <t>Serial Correlation of Residuals: 0.0158</t>
-  </si>
-  <si>
-    <t>Est   0 0.42 0.61 4.52 6.07 6.29 6.29</t>
-  </si>
-  <si>
-    <t>Obs   0 0.06 0.51 4.03 5.42 8.29 8.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bp: 2.408 percent</t>
-  </si>
-  <si>
-    <t>PLR: 1.024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  E: 0.8535</t>
-  </si>
-  <si>
     <t>&gt; pTHg_Combinedm2 &lt;- loadReg(pTHg ~model(2), data = pTHg_Combined , flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
   </si>
   <si>
@@ -2051,42 +2000,6 @@
     <t>&gt; pTHg_Combinedm2</t>
   </si>
   <si>
-    <t>(Intercept)  -2.5845     0.3503  -7.378  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ           1.7022     0.1629  10.449  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ2          0.1507     0.1069   1.410  0.1313</t>
-  </si>
-  <si>
-    <t>Residual variance: 0.7738</t>
-  </si>
-  <si>
-    <t>R-squared: 89.53 percent</t>
-  </si>
-  <si>
-    <t>G-squared: 36.11 on 2 degrees of freedom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  r = 0.9529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  p-value = 0.0978</t>
-  </si>
-  <si>
-    <t>Serial Correlation of Residuals: 0.1811</t>
-  </si>
-  <si>
-    <t>Est   0 0.29 0.46 5.58 8.22 8.62 8.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bp: 25.29 percent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  E: 0.683</t>
-  </si>
-  <si>
     <t>&gt; pTHg_Combinedm3 &lt;- loadReg(pTHg ~model(3), data = pTHg_Combined , flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
   </si>
   <si>
@@ -2096,54 +2009,6 @@
     <t>&gt; pTHg_Combinedm3</t>
   </si>
   <si>
-    <t>(Intercept)   -2.261     0.2572  -8.789  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ            1.777     0.1835   9.686  0.0000</t>
-  </si>
-  <si>
-    <t>DECTIME       -0.546     0.5321  -1.026  0.2643</t>
-  </si>
-  <si>
-    <t>Residual variance: 0.8252</t>
-  </si>
-  <si>
-    <t>R-squared: 88.83 percent</t>
-  </si>
-  <si>
-    <t>G-squared: 35.08 on 2 degrees of freedom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  r = 0.9573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  p-value = 0.1308</t>
-  </si>
-  <si>
-    <t>Serial Correlation of Residuals: -0.1074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         VIF</t>
-  </si>
-  <si>
-    <t>lnQ     1.19</t>
-  </si>
-  <si>
-    <t>DECTIME 1.19</t>
-  </si>
-  <si>
-    <t>Est   0 0.37 0.65 3.96 5.28 5.86 5.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bp: -4.952 percent</t>
-  </si>
-  <si>
-    <t>PLR: 0.9505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  E: 0.8478</t>
-  </si>
-  <si>
     <t>&gt; pTHg_Combinedm4 &lt;- loadReg(pTHg ~model(4), data = pTHg_Combined , flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
   </si>
   <si>
@@ -2153,57 +2018,9 @@
     <t>&gt; pTHg_Combinedm4</t>
   </si>
   <si>
-    <t>(Intercept)  -0.6850     2.5839 -0.2651  0.7599</t>
-  </si>
-  <si>
-    <t>lnQ           1.6540     0.1845  8.9641  0.0000</t>
-  </si>
-  <si>
-    <t>sin.DECTIME  -1.6870     2.1147 -0.7978  0.3632</t>
-  </si>
-  <si>
-    <t>cos.DECTIME  -0.6161     2.1009 -0.2933  0.7353</t>
-  </si>
-  <si>
-    <t>Residual variance: 0.814</t>
-  </si>
-  <si>
-    <t>R-squared: 89.83 percent</t>
-  </si>
-  <si>
-    <t>G-squared: 36.58 on 3 degrees of freedom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  r = 0.8817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  p-value = 0.0021</t>
-  </si>
-  <si>
-    <t>Serial Correlation of Residuals: 0.0024</t>
-  </si>
-  <si>
     <t>lnQ         1.219</t>
   </si>
   <si>
-    <t>sin.DECTIME 8.461</t>
-  </si>
-  <si>
-    <t>cos.DECTIME 9.077</t>
-  </si>
-  <si>
-    <t>Est   0 0.31 0.52 4.01 8.71 9.90 9.90</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bp: 15.67 percent</t>
-  </si>
-  <si>
-    <t>PLR: 1.157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  E: 0.7765</t>
-  </si>
-  <si>
     <t>&gt; pTHg_Combinedm5 &lt;- loadReg(pTHg ~model(5), data = pTHg_Combined , flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
   </si>
   <si>
@@ -2213,57 +2030,9 @@
     <t>&gt; pTHg_Combinedm5</t>
   </si>
   <si>
-    <t>(Intercept)  -2.7580     0.3423  -8.057  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ           1.8217     0.1673  10.887  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ2          0.2084     0.1053   1.979  0.0335</t>
-  </si>
-  <si>
-    <t>DECTIME      -0.8683     0.5077  -1.710  0.0617</t>
-  </si>
-  <si>
-    <t>Residual variance: 0.674</t>
-  </si>
-  <si>
-    <t>R-squared: 91.58 percent</t>
-  </si>
-  <si>
-    <t>G-squared: 39.6 on 3 degrees of freedom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  r = 0.9677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  p-value = 0.2616</t>
-  </si>
-  <si>
-    <t>Serial Correlation of Residuals: -0.1007</t>
-  </si>
-  <si>
     <t>lnQ     1.211</t>
   </si>
   <si>
-    <t>lnQ2    1.115</t>
-  </si>
-  <si>
-    <t>DECTIME 1.326</t>
-  </si>
-  <si>
-    <t>Est   0 0.20 0.46 4.82 7.39 8.62 8.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bp: 17.79 percent</t>
-  </si>
-  <si>
-    <t>PLR: 1.178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  E: 0.7558</t>
-  </si>
-  <si>
     <t>&gt; pTHg_Combinedm6 &lt;- loadReg(pTHg ~model(6), data = pTHg_Combined , flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
   </si>
   <si>
@@ -2273,66 +2042,6 @@
     <t>&gt; pTHg_Combinedm6</t>
   </si>
   <si>
-    <t>(Intercept)  -0.7877     2.6373 -0.2987  0.7192</t>
-  </si>
-  <si>
-    <t>lnQ           1.6879     0.1935  8.7220  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ2          0.1018     0.1371  0.7423  0.3765</t>
-  </si>
-  <si>
-    <t>sin.DECTIME  -1.6291     2.1568 -0.7553  0.3684</t>
-  </si>
-  <si>
-    <t>cos.DECTIME  -0.9647     2.1922 -0.4401  0.5972</t>
-  </si>
-  <si>
-    <t>Residual variance: 0.8457</t>
-  </si>
-  <si>
-    <t>R-squared: 90.32 percent</t>
-  </si>
-  <si>
-    <t>G-squared: 37.36 on 4 degrees of freedom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  r = 0.9435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  p-value = 0.054</t>
-  </si>
-  <si>
-    <t>Serial Correlation of Residuals: 0.1285</t>
-  </si>
-  <si>
-    <t>lnQ         1.291</t>
-  </si>
-  <si>
-    <t>lnQ2        1.506</t>
-  </si>
-  <si>
-    <t>sin.DECTIME 8.472</t>
-  </si>
-  <si>
-    <t>cos.DECTIME 9.513</t>
-  </si>
-  <si>
-    <t>Est   0 0.28 0.43 4.56 9.44 11.20 11.20</t>
-  </si>
-  <si>
-    <t>Obs   0 0.06 0.51 4.03 5.42  8.29  8.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bp: 27.15 percent</t>
-  </si>
-  <si>
-    <t>PLR: 1.272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  E: 0.6172</t>
-  </si>
-  <si>
     <t>&gt; pTHg_Combinedm7 &lt;- loadReg(pTHg ~model(7), data = pTHg_Combined , flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
   </si>
   <si>
@@ -2342,66 +2051,6 @@
     <t>&gt; pTHg_Combinedm7</t>
   </si>
   <si>
-    <t>(Intercept)   0.6013     2.4602  0.2444  0.7685</t>
-  </si>
-  <si>
-    <t>lnQ           1.7865     0.1832  9.7535  0.0000</t>
-  </si>
-  <si>
-    <t>DECTIME      -0.9621     0.5221 -1.8428  0.0380</t>
-  </si>
-  <si>
-    <t>sin.DECTIME  -2.9133     2.0421 -1.4266  0.0993</t>
-  </si>
-  <si>
-    <t>cos.DECTIME  -1.4671     1.9729 -0.7436  0.3757</t>
-  </si>
-  <si>
-    <t>Residual variance: 0.6785</t>
-  </si>
-  <si>
-    <t>R-squared: 92.23 percent</t>
-  </si>
-  <si>
-    <t>G-squared: 40.88 on 4 degrees of freedom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  r = 0.9551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  p-value = 0.1134</t>
-  </si>
-  <si>
-    <t>Serial Correlation of Residuals: -0.2809</t>
-  </si>
-  <si>
-    <t>lnQ         1.442</t>
-  </si>
-  <si>
-    <t>DECTIME     1.393</t>
-  </si>
-  <si>
-    <t>sin.DECTIME 9.466</t>
-  </si>
-  <si>
-    <t>cos.DECTIME 9.603</t>
-  </si>
-  <si>
-    <t>Est   0 0.25 0.62 2.72 10.00 11.00 11.00</t>
-  </si>
-  <si>
-    <t>Obs   0 0.06 0.51 4.03  5.42  8.29  8.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bp: 11.01 percent</t>
-  </si>
-  <si>
-    <t>PLR: 1.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  E: 0.5644</t>
-  </si>
-  <si>
     <t>&gt; pTHg_Combinedm8 &lt;- loadReg(pTHg ~model(8), data = pTHg_Combined , flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
   </si>
   <si>
@@ -2411,69 +2060,6 @@
     <t>&gt; pTHg_Combinedm8</t>
   </si>
   <si>
-    <t>(Intercept)   0.6724     2.3627  0.2846  0.7194</t>
-  </si>
-  <si>
-    <t>lnQ           1.8678     0.1853 10.0783  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ2          0.1693     0.1218  1.3900  0.0927</t>
-  </si>
-  <si>
-    <t>DECTIME      -1.1430     0.5179 -2.2070  0.0117</t>
-  </si>
-  <si>
-    <t>sin.DECTIME  -3.0475     1.9631 -1.5524  0.0631</t>
-  </si>
-  <si>
-    <t>cos.DECTIME  -2.2071     1.9677 -1.1217  0.1685</t>
-  </si>
-  <si>
-    <t>Residual variance: 0.6255</t>
-  </si>
-  <si>
-    <t>R-squared: 93.49 percent</t>
-  </si>
-  <si>
-    <t>G-squared: 43.71 on 5 degrees of freedom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  r = 0.9925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  p-value = 0.9726</t>
-  </si>
-  <si>
-    <t>Serial Correlation of Residuals: -0.3171</t>
-  </si>
-  <si>
-    <t>lnQ          1.601</t>
-  </si>
-  <si>
-    <t>lnQ2         1.608</t>
-  </si>
-  <si>
-    <t>DECTIME      1.487</t>
-  </si>
-  <si>
-    <t>sin.DECTIME  9.489</t>
-  </si>
-  <si>
-    <t>cos.DECTIME 10.361</t>
-  </si>
-  <si>
-    <t>Est   0 0.15 0.57 3.11 11.50 13.60 13.60</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bp: 27.5 percent</t>
-  </si>
-  <si>
-    <t>PLR: 1.275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  E: 0.1811</t>
-  </si>
-  <si>
     <t>&gt; pTHg_Combinedm9 &lt;- loadReg(pTHg ~model(9), data = pTHg_Combined , flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
   </si>
   <si>
@@ -2483,79 +2069,481 @@
     <t>&gt; pTHg_Combinedm9</t>
   </si>
   <si>
-    <t xml:space="preserve">             Estimate Std. Error   z-score p-value</t>
-  </si>
-  <si>
-    <t>(Intercept)   1.82955     2.2257  0.822011  0.2818</t>
-  </si>
-  <si>
-    <t>lnQ           1.23195     0.3888  3.168366  0.0005</t>
-  </si>
-  <si>
-    <t>lnQ2          0.41280     0.1736  2.377332  0.0052</t>
-  </si>
-  <si>
-    <t>DECTIME      -0.11685     0.7344 -0.159113  0.8321</t>
-  </si>
-  <si>
-    <t>DECTIME2    -17.68343     9.7624 -1.811377  0.0257</t>
-  </si>
-  <si>
-    <t>sin.DECTIME   0.02235     2.4516  0.009115  0.9903</t>
-  </si>
-  <si>
-    <t>cos.DECTIME  -1.45512     1.8234 -0.798011  0.2956</t>
-  </si>
-  <si>
-    <t>Residual variance: 0.5093</t>
-  </si>
-  <si>
-    <t>R-squared: 95.23 percent</t>
-  </si>
-  <si>
-    <t>G-squared: 48.68 on 6 degrees of freedom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  r = 0.9665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  p-value = 0.2407</t>
-  </si>
-  <si>
-    <t>Serial Correlation of Residuals: -0.166</t>
-  </si>
-  <si>
-    <t>lnQ          8.653</t>
-  </si>
-  <si>
-    <t>lnQ2         4.011</t>
-  </si>
-  <si>
-    <t>DECTIME      3.671</t>
-  </si>
-  <si>
-    <t>DECTIME2    12.429</t>
-  </si>
-  <si>
-    <t>sin.DECTIME 18.175</t>
-  </si>
-  <si>
-    <t>cos.DECTIME 10.927</t>
-  </si>
-  <si>
-    <t>Est   0 0.12 0.49 3.46 11.40 14.40 14.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bp: 30.46 percent</t>
-  </si>
-  <si>
-    <t>PLR: 1.305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  E: 0.05882</t>
-  </si>
-  <si>
-    <t>Number of Uncensored Observations: 16; Period of record: 2016-01-24 to 2017-04-04</t>
+    <t xml:space="preserve">           Number of Observations: 34</t>
+  </si>
+  <si>
+    <t>Number of Uncensored Observations: 34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Center of Decimal Time: 2016.626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  Center of ln(Q): 7.0699</t>
+  </si>
+  <si>
+    <t>(Intercept)   -2.252     0.1729  -13.02       0</t>
+  </si>
+  <si>
+    <t>lnQ            1.487     0.1040   14.30       0</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.9955</t>
+  </si>
+  <si>
+    <t>R-squared: 86.47 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 68.01 on 1 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.3249</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.4827</t>
+  </si>
+  <si>
+    <t>Est   0 0.04 0.64 2.24 4.92 6.19 6.39</t>
+  </si>
+  <si>
+    <t>Obs   0 0.03 0.21 1.74 4.82 5.42 8.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 11.88 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8658</t>
+  </si>
+  <si>
+    <t>(Intercept) -2.39780    0.27334 -8.7722  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          1.48672    0.10481 14.1849  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2         0.05276    0.07611  0.6932  0.4696</t>
+  </si>
+  <si>
+    <t>Residual variance: 1.012</t>
+  </si>
+  <si>
+    <t>R-squared: 86.68 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 68.53 on 2 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.2364</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.5144</t>
+  </si>
+  <si>
+    <t>Est   0 0.03 0.58 2.29 5.54 7.16 7.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 21.4 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8257</t>
+  </si>
+  <si>
+    <t>(Intercept)  -2.2390     0.1665 -13.446  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ           1.5735     0.1101  14.291  0.0000</t>
+  </si>
+  <si>
+    <t>DECTIME      -0.7296     0.3868  -1.886  0.0546</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.9218</t>
+  </si>
+  <si>
+    <t>R-squared: 87.86 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 71.71 on 2 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.7597</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.4326</t>
+  </si>
+  <si>
+    <t>DECTIME 1.211</t>
+  </si>
+  <si>
+    <t>Est   0 0.05 0.59 1.86 4.11 5.13 5.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 0.7771 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8568</t>
+  </si>
+  <si>
+    <t>(Intercept)  -3.8604     1.0190  -3.788  0.0003</t>
+  </si>
+  <si>
+    <t>lnQ           1.4091     0.1092  12.904  0.0000</t>
+  </si>
+  <si>
+    <t>sin.DECTIME   0.9295     0.8834   1.052  0.2670</t>
+  </si>
+  <si>
+    <t>cos.DECTIME   1.6998     0.8663   1.962  0.0428</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.9011</t>
+  </si>
+  <si>
+    <t>R-squared: 88.52 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 73.6 on 3 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.067</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.3814</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 3.817</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 3.874</t>
+  </si>
+  <si>
+    <t>Est   0 0.02 0.44 2.50 5.27 5.89 6.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 13.11 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8481</t>
+  </si>
+  <si>
+    <t>(Intercept)  -2.5453    0.26388  -9.646  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ           1.5975    0.10927  14.620  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2          0.1120    0.07577   1.479  0.1220</t>
+  </si>
+  <si>
+    <t>DECTIME      -0.9317    0.40341  -2.309  0.0183</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.8879</t>
+  </si>
+  <si>
+    <t>R-squared: 88.69 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 74.1 on 3 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.3876</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.4643</t>
+  </si>
+  <si>
+    <t>lnQ     1.239</t>
+  </si>
+  <si>
+    <t>lnQ2    1.130</t>
+  </si>
+  <si>
+    <t>DECTIME 1.368</t>
+  </si>
+  <si>
+    <t>Est   0 0.04 0.44 1.81 5.05 6.76 7.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 16.1 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8386</t>
+  </si>
+  <si>
+    <t>(Intercept) -3.91387    1.09891 -3.5616  0.0004</t>
+  </si>
+  <si>
+    <t>lnQ          1.40841    0.11115 12.6717  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2         0.01219    0.08356  0.1459  0.8745</t>
+  </si>
+  <si>
+    <t>sin.DECTIME  0.96644    0.93310  1.0357  0.2664</t>
+  </si>
+  <si>
+    <t>cos.DECTIME  1.69912    0.88078  1.9291  0.0428</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.9315</t>
+  </si>
+  <si>
+    <t>R-squared: 88.53 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 73.62 on 4 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.0694</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.3912</t>
+  </si>
+  <si>
+    <t>lnQ         1.222</t>
+  </si>
+  <si>
+    <t>lnQ2        1.309</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 4.119</t>
+  </si>
+  <si>
+    <t>Est   0 0.03 0.44 2.51 5.38 5.95 6.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 14.71 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8446</t>
+  </si>
+  <si>
+    <t>(Intercept)  -2.2760     1.2582 -1.8089  0.0566</t>
+  </si>
+  <si>
+    <t>lnQ           1.5959     0.1404 11.3648  0.0000</t>
+  </si>
+  <si>
+    <t>DECTIME      -0.9773     0.4925 -1.9846  0.0375</t>
+  </si>
+  <si>
+    <t>sin.DECTIME  -0.5715     1.1326 -0.5046  0.5857</t>
+  </si>
+  <si>
+    <t>cos.DECTIME   0.5449     1.0110  0.5390  0.5604</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.8207</t>
+  </si>
+  <si>
+    <t>R-squared: 89.89 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 77.93 on 4 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.5661</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.3678</t>
+  </si>
+  <si>
+    <t>lnQ         2.213</t>
+  </si>
+  <si>
+    <t>DECTIME     2.206</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 6.888</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 5.793</t>
+  </si>
+  <si>
+    <t>Est   0 0.03 0.53 2.21 3.91 6.66 7.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 5.394 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8923</t>
+  </si>
+  <si>
+    <t>(Intercept) -2.38152    1.28604 -1.8518  0.0475</t>
+  </si>
+  <si>
+    <t>lnQ          1.60485    0.14291 11.2297  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2         0.04681    0.08114  0.5768  0.5262</t>
+  </si>
+  <si>
+    <t>DECTIME     -1.03880    0.50950 -2.0389  0.0300</t>
+  </si>
+  <si>
+    <t>sin.DECTIME -0.52420    1.14879 -0.4563  0.6157</t>
+  </si>
+  <si>
+    <t>cos.DECTIME  0.46980    1.03109  0.4556  0.6163</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.84</t>
+  </si>
+  <si>
+    <t>R-squared: 90.01 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 78.33 on 5 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.3743</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.3995</t>
+  </si>
+  <si>
+    <t>lnQ         2.240</t>
+  </si>
+  <si>
+    <t>lnQ2        1.369</t>
+  </si>
+  <si>
+    <t>DECTIME     2.307</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 6.924</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 5.887</t>
+  </si>
+  <si>
+    <t>Est   0 0.03 0.49 2.16 4.37 7.23 8.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 11.23 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8787</t>
+  </si>
+  <si>
+    <t>(Intercept) -2.42751    1.30952 -1.8537  0.0436</t>
+  </si>
+  <si>
+    <t>lnQ          1.55880    0.18015  8.6529  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2         0.05484    0.08443  0.6495  0.4678</t>
+  </si>
+  <si>
+    <t>DECTIME     -0.91386    0.59281 -1.5416  0.0904</t>
+  </si>
+  <si>
+    <t>DECTIME2    -1.18401    2.74756 -0.4309  0.6293</t>
+  </si>
+  <si>
+    <t>sin.DECTIME -0.18880    1.40178 -0.1347  0.8799</t>
+  </si>
+  <si>
+    <t>cos.DECTIME  0.63270    1.11261  0.5687  0.5246</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.8652</t>
+  </si>
+  <si>
+    <t>R-squared: 90.08 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 78.56 on 6 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.5004</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.3929</t>
+  </si>
+  <si>
+    <t>lnQ          3.456</t>
+  </si>
+  <si>
+    <t>lnQ2         1.440</t>
+  </si>
+  <si>
+    <t>DECTIME      3.033</t>
+  </si>
+  <si>
+    <t>DECTIME2     1.943</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 10.009</t>
+  </si>
+  <si>
+    <t>cos.DECTIME  6.656</t>
+  </si>
+  <si>
+    <t>Est   0 0.03 0.51 2.18 4.40 7.00 8.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 11.29 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8825</t>
+  </si>
+  <si>
+    <t>Number of Uncensored Observations: 34; Period of record: 2016-01-20 to 2017-04-26</t>
   </si>
 </sst>
 </file>
@@ -2890,26 +2878,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2923,14 +2893,32 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="17">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2958,56 +2946,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3496,8 +3434,8 @@
   <dimension ref="A1:AI68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M52" sqref="M52"/>
+      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M53" sqref="M53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3509,10 +3447,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="37"/>
       <c r="C1" s="6"/>
       <c r="K1" s="23" t="s">
         <v>35</v>
@@ -3551,24 +3489,24 @@
       <c r="L2" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="N2" s="40" t="s">
+      <c r="N2" s="34" t="s">
         <v>459</v>
       </c>
-      <c r="O2" s="41"/>
+      <c r="O2" s="35"/>
     </row>
     <row r="3" spans="1:35" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="40"/>
       <c r="Z4" s="18" t="s">
         <v>254</v>
       </c>
@@ -3583,21 +3521,21 @@
       <c r="AI4" s="18"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="33" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="33"/>
+      <c r="L5" s="44"/>
       <c r="Z5" s="18" t="s">
         <v>255</v>
       </c>
@@ -3648,7 +3586,7 @@
       <c r="L6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="44" t="s">
+      <c r="M6" s="33" t="s">
         <v>19</v>
       </c>
       <c r="N6" s="3" t="s">
@@ -4091,36 +4029,36 @@
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="40"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="41" t="s">
         <v>408</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="33" t="s">
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="L18" s="33"/>
+      <c r="L18" s="44"/>
     </row>
     <row r="19" spans="1:25" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
@@ -4159,7 +4097,7 @@
       <c r="L19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M19" s="44" t="s">
+      <c r="M19" s="33" t="s">
         <v>19</v>
       </c>
       <c r="N19" s="3" t="s">
@@ -4594,36 +4532,36 @@
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="38" t="s">
         <v>651</v>
       </c>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="40"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="41" t="s">
         <v>650</v>
       </c>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="33" t="s">
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="L31" s="33"/>
+      <c r="L31" s="44"/>
     </row>
     <row r="32" spans="1:25" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
@@ -4662,7 +4600,7 @@
       <c r="L32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M32" s="44" t="s">
+      <c r="M32" s="33" t="s">
         <v>19</v>
       </c>
       <c r="N32" s="3" t="s">
@@ -5096,36 +5034,36 @@
       </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B43" s="37" t="s">
+      <c r="B43" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="39"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="40"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B44" s="34" t="s">
-        <v>843</v>
-      </c>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="36"/>
-      <c r="K44" s="33" t="s">
+      <c r="B44" s="41" t="s">
+        <v>839</v>
+      </c>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="L44" s="33"/>
+      <c r="L44" s="44"/>
     </row>
     <row r="45" spans="1:27" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
@@ -5164,7 +5102,7 @@
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M45" s="44" t="s">
+      <c r="M45" s="33" t="s">
         <v>19</v>
       </c>
       <c r="N45" s="3" t="s">
@@ -5197,16 +5135,16 @@
         <v>7</v>
       </c>
       <c r="I46" s="11">
-        <v>87.93</v>
+        <v>86.47</v>
       </c>
       <c r="J46" s="11">
-        <v>1.5800000000000002E-2</v>
+        <v>0.48270000000000002</v>
       </c>
       <c r="K46" s="11">
-        <v>2.4079999999999999</v>
+        <v>11.88</v>
       </c>
       <c r="L46" s="32">
-        <v>0.85350000000000004</v>
+        <v>0.86580000000000001</v>
       </c>
       <c r="M46" s="11" t="s">
         <v>8</v>
@@ -5222,14 +5160,14 @@
       </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
+      <c r="A47" s="32">
         <v>2</v>
       </c>
       <c r="B47" s="6">
         <v>0</v>
       </c>
       <c r="C47" s="30">
-        <v>0.1313</v>
+        <v>0.46960000000000002</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>16</v>
@@ -5247,22 +5185,23 @@
         <v>7</v>
       </c>
       <c r="I47" s="32">
-        <v>89.53</v>
+        <v>86.68</v>
       </c>
       <c r="J47" s="32">
-        <v>0.18110000000000001</v>
+        <v>0.51439999999999997</v>
       </c>
       <c r="K47" s="32">
-        <v>25.29</v>
+        <v>21.4</v>
       </c>
       <c r="L47" s="32">
-        <v>0.68300000000000005</v>
-      </c>
+        <v>0.82569999999999999</v>
+      </c>
+      <c r="M47" s="32"/>
       <c r="N47" s="8" t="s">
         <v>17</v>
       </c>
       <c r="P47" s="8" t="s">
-        <v>673</v>
+        <v>656</v>
       </c>
       <c r="Y47" s="9" t="s">
         <v>18</v>
@@ -5278,8 +5217,8 @@
       <c r="C48" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="28">
-        <v>0.26429999999999998</v>
+      <c r="D48" s="26">
+        <v>5.4600000000000003E-2</v>
       </c>
       <c r="E48" s="31" t="s">
         <v>16</v>
@@ -5294,16 +5233,16 @@
         <v>7</v>
       </c>
       <c r="I48" s="11">
-        <v>88.83</v>
+        <v>87.86</v>
       </c>
       <c r="J48" s="11">
-        <v>-0.1074</v>
+        <v>0.43259999999999998</v>
       </c>
       <c r="K48" s="11">
-        <v>-4.952</v>
+        <v>0.77710000000000001</v>
       </c>
       <c r="L48" s="32">
-        <v>0.8478</v>
+        <v>0.85680000000000001</v>
       </c>
       <c r="M48" s="11" t="s">
         <v>8</v>
@@ -5312,14 +5251,14 @@
         <v>17</v>
       </c>
       <c r="P48" s="8" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
       <c r="Y48" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
+      <c r="A49" s="32">
         <v>4</v>
       </c>
       <c r="B49" s="6">
@@ -5335,48 +5274,49 @@
         <v>16</v>
       </c>
       <c r="F49" s="6">
-        <v>0.36320000000000002</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="G49" s="32">
-        <v>0.73529999999999995</v>
+        <v>4.2799999999999998E-2</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I49" s="32">
-        <v>89.83</v>
+        <v>88.52</v>
       </c>
       <c r="J49" s="32">
-        <v>2.3999999999999998E-3</v>
+        <v>0.38140000000000002</v>
       </c>
       <c r="K49" s="32">
-        <v>15.67</v>
+        <v>13.11</v>
       </c>
       <c r="L49" s="32">
-        <v>0.77649999999999997</v>
-      </c>
+        <v>0.84809999999999997</v>
+      </c>
+      <c r="M49" s="32"/>
       <c r="N49" s="8" t="s">
         <v>17</v>
       </c>
       <c r="P49" s="8" t="s">
-        <v>707</v>
+        <v>662</v>
       </c>
       <c r="Y49" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
+      <c r="A50" s="32">
         <v>5</v>
       </c>
       <c r="B50" s="6">
         <v>0</v>
       </c>
       <c r="C50" s="32">
-        <v>3.3500000000000002E-2</v>
+        <v>0.122</v>
       </c>
       <c r="D50" s="32">
-        <v>6.1699999999999998E-2</v>
+        <v>1.83E-2</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>16</v>
@@ -5391,36 +5331,37 @@
         <v>7</v>
       </c>
       <c r="I50" s="32">
-        <v>91.58</v>
+        <v>88.69</v>
       </c>
       <c r="J50" s="32">
-        <v>-0.1007</v>
+        <v>0.46429999999999999</v>
       </c>
       <c r="K50" s="32">
-        <v>17.79</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="L50" s="32">
-        <v>0.75580000000000003</v>
-      </c>
+        <v>0.83860000000000001</v>
+      </c>
+      <c r="M50" s="32"/>
       <c r="N50" s="8" t="s">
         <v>17</v>
       </c>
       <c r="P50" s="8" t="s">
-        <v>727</v>
+        <v>666</v>
       </c>
       <c r="Y50" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
+      <c r="A51" s="32">
         <v>6</v>
       </c>
       <c r="B51" s="6">
         <v>0</v>
       </c>
       <c r="C51" s="32">
-        <v>0.3765</v>
+        <v>0.87450000000000006</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>16</v>
@@ -5429,38 +5370,39 @@
         <v>16</v>
       </c>
       <c r="F51" s="6">
-        <v>0.36840000000000001</v>
+        <v>0.26640000000000003</v>
       </c>
       <c r="G51" s="32">
-        <v>0.59719999999999995</v>
+        <v>4.2799999999999998E-2</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I51" s="32">
-        <v>90.32</v>
+        <v>88.53</v>
       </c>
       <c r="J51" s="32">
-        <v>0.1285</v>
+        <v>0.39119999999999999</v>
       </c>
       <c r="K51" s="32">
-        <v>27.15</v>
+        <v>14.71</v>
       </c>
       <c r="L51" s="32">
-        <v>0.61719999999999997</v>
-      </c>
+        <v>0.84460000000000002</v>
+      </c>
+      <c r="M51" s="32"/>
       <c r="N51" s="8" t="s">
         <v>17</v>
       </c>
       <c r="P51" s="8" t="s">
-        <v>747</v>
+        <v>670</v>
       </c>
       <c r="Y51" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
+      <c r="A52" s="32">
         <v>7</v>
       </c>
       <c r="B52" s="6">
@@ -5470,131 +5412,134 @@
         <v>16</v>
       </c>
       <c r="D52" s="6">
-        <v>3.7999999999999999E-2</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F52" s="6">
-        <v>9.9299999999999999E-2</v>
+        <v>0.5857</v>
       </c>
       <c r="G52" s="32">
-        <v>0.37569999999999998</v>
+        <v>0.56040000000000001</v>
       </c>
       <c r="H52" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I52" s="32">
-        <v>92.23</v>
+        <v>89.89</v>
       </c>
       <c r="J52" s="32">
-        <v>-0.28089999999999998</v>
+        <v>0.36780000000000002</v>
       </c>
       <c r="K52" s="32">
-        <v>11.01</v>
+        <v>5.3940000000000001</v>
       </c>
       <c r="L52" s="32">
-        <v>0.56440000000000001</v>
-      </c>
+        <v>0.89229999999999998</v>
+      </c>
+      <c r="M52" s="32"/>
       <c r="N52" s="8" t="s">
         <v>17</v>
       </c>
       <c r="P52" s="8" t="s">
-        <v>770</v>
+        <v>673</v>
       </c>
       <c r="Y52" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
+      <c r="A53" s="32">
         <v>8</v>
       </c>
       <c r="B53" s="6">
         <v>0</v>
       </c>
       <c r="C53" s="32">
-        <v>9.2700000000000005E-2</v>
+        <v>0.5262</v>
       </c>
       <c r="D53" s="6">
-        <v>1.17E-2</v>
+        <v>0.03</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F53" s="6">
-        <v>6.3100000000000003E-2</v>
+        <v>0.61570000000000003</v>
       </c>
       <c r="G53" s="6">
-        <v>0.16850000000000001</v>
+        <v>0.61629999999999996</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I53" s="32">
-        <v>93.49</v>
+        <v>90.01</v>
       </c>
       <c r="J53" s="32">
-        <v>-0.31709999999999999</v>
+        <v>0.39950000000000002</v>
       </c>
       <c r="K53" s="32">
-        <v>27.5</v>
+        <v>11.23</v>
       </c>
       <c r="L53" s="32">
-        <v>0.18110000000000001</v>
-      </c>
+        <v>0.87870000000000004</v>
+      </c>
+      <c r="M53" s="32"/>
       <c r="N53" s="8" t="s">
         <v>17</v>
       </c>
       <c r="P53" s="8" t="s">
-        <v>793</v>
+        <v>676</v>
       </c>
       <c r="Y53" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
+      <c r="A54" s="32">
         <v>9</v>
       </c>
       <c r="B54" s="6">
-        <v>5.0000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="C54" s="32">
-        <v>5.1999999999999998E-3</v>
+        <v>0.46779999999999999</v>
       </c>
       <c r="D54" s="6">
-        <v>0.83209999999999995</v>
+        <v>9.0399999999999994E-2</v>
       </c>
       <c r="E54" s="6">
-        <v>2.5700000000000001E-2</v>
+        <v>0.62929999999999997</v>
       </c>
       <c r="F54" s="6">
-        <v>0.99029999999999996</v>
+        <v>0.87990000000000002</v>
       </c>
       <c r="G54" s="6">
-        <v>0.29559999999999997</v>
+        <v>0.52459999999999996</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I54" s="32">
-        <v>95.23</v>
+        <v>90.08</v>
       </c>
       <c r="J54" s="32">
-        <v>-0.16600000000000001</v>
+        <v>0.39290000000000003</v>
       </c>
       <c r="K54" s="32">
-        <v>30.46</v>
+        <v>11.29</v>
       </c>
       <c r="L54" s="32">
-        <v>5.8819999999999997E-2</v>
-      </c>
+        <v>0.88249999999999995</v>
+      </c>
+      <c r="M54" s="32"/>
       <c r="N54" s="8" t="s">
         <v>17</v>
       </c>
       <c r="P54" s="8" t="s">
-        <v>817</v>
+        <v>679</v>
       </c>
       <c r="Y54" s="9" t="s">
         <v>18</v>
@@ -5606,34 +5551,34 @@
       <c r="Y55" s="9"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B57" s="37" t="s">
+      <c r="B57" s="38" t="s">
         <v>256</v>
       </c>
-      <c r="C57" s="38"/>
-      <c r="D57" s="38"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="38"/>
-      <c r="G57" s="38"/>
-      <c r="H57" s="38"/>
-      <c r="I57" s="38"/>
-      <c r="J57" s="39"/>
-      <c r="K57" s="33"/>
-      <c r="L57" s="33"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="39"/>
+      <c r="I57" s="39"/>
+      <c r="J57" s="40"/>
+      <c r="K57" s="44"/>
+      <c r="L57" s="44"/>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B58" s="34"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="35"/>
-      <c r="I58" s="35"/>
-      <c r="J58" s="36"/>
-      <c r="K58" s="33" t="s">
+      <c r="B58" s="41"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="43"/>
+      <c r="K58" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="L58" s="33"/>
+      <c r="L58" s="44"/>
     </row>
     <row r="59" spans="1:25" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
@@ -5672,7 +5617,7 @@
       <c r="L59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M59" s="44" t="s">
+      <c r="M59" s="33" t="s">
         <v>19</v>
       </c>
       <c r="N59" s="3" t="s">
@@ -5873,12 +5818,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="K58:L58"/>
     <mergeCell ref="B58:J58"/>
     <mergeCell ref="B18:J18"/>
@@ -5891,50 +5830,64 @@
     <mergeCell ref="K31:L31"/>
     <mergeCell ref="B43:J43"/>
     <mergeCell ref="K44:L44"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="L7:L15 L60:L68 L33:L41 L20:L28 L57 L93:L1048576">
-    <cfRule type="cellIs" dxfId="10" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="24" operator="between">
       <formula>0.5</formula>
       <formula>0.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="25" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="26" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L46:L54">
-    <cfRule type="cellIs" dxfId="7" priority="15" operator="between">
-      <formula>0.5</formula>
-      <formula>0.8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="16" operator="lessThan">
-      <formula>0.5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="17" operator="greaterThan">
-      <formula>0.8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K7:K15 K46:K55 K33:K41 K60:K1048576 K57 K20:K29">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
+  <conditionalFormatting sqref="K7:K15 K55 K33:K41 K60:K1048576 K57 K20:K29">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="lessThan">
       <formula>-25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="greaterThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B15 C8 D9 C11:C12 D11 C14:C15 D13:D15 E15 F10:G10 F12:G15 C21 C24:C25 B20:B28 C27:C28 D22 D24 D26:D28 E28 F23:G23 F25:G28 B33:B41 C34 D35 C37:C38 D37 C40:C41 D39:D41 E41 F36:G36 F38:G41">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
-      <formula>0.1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C47 D48 C50:C51 D50 C53:C54 D52:D54 E54 F49:G49 F51:G54">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61 D62 C64:C65 D64 C67:C68 D66:D68 E68 F63:G63 F65:G68">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
+      <formula>0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L46:L54">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="between">
+      <formula>0.5</formula>
+      <formula>0.8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
+      <formula>0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="greaterThan">
+      <formula>0.8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K46:K54">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+      <formula>-25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
+      <formula>25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47 D48 C50:C51 D50 C53:C54 D52:D54 E54 F49:G49 F51:G54">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
@@ -10863,7 +10816,7 @@
   <dimension ref="A1:A528"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:A528"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13329,11 +13282,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F148CCC5-F27C-443E-A500-BD42825FDC98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FBE2AD-EC1E-4563-8289-C8C08DD23DD5}">
   <dimension ref="A1:A528"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13386,27 +13339,27 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>655</v>
+        <v>681</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>656</v>
+        <v>682</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>657</v>
+        <v>683</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>658</v>
+        <v>684</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>261</v>
+        <v>467</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -13445,12 +13398,12 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>659</v>
+        <v>685</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>660</v>
+        <v>686</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
@@ -13463,17 +13416,17 @@
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>661</v>
+        <v>687</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>662</v>
+        <v>688</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>663</v>
+        <v>689</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
@@ -13488,17 +13441,17 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>664</v>
+        <v>690</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>665</v>
+        <v>691</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>666</v>
+        <v>692</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
@@ -13534,12 +13487,12 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>667</v>
+        <v>693</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>668</v>
+        <v>694</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
@@ -13557,17 +13510,17 @@
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>669</v>
+        <v>695</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>670</v>
+        <v>696</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>671</v>
+        <v>697</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
@@ -13575,7 +13528,7 @@
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
-        <v>672</v>
+        <v>655</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
@@ -13585,7 +13538,7 @@
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>673</v>
+        <v>656</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
@@ -13595,7 +13548,7 @@
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
@@ -13621,27 +13574,27 @@
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>655</v>
+        <v>681</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>656</v>
+        <v>682</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>657</v>
+        <v>683</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>658</v>
+        <v>684</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
-        <v>261</v>
+        <v>467</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
@@ -13680,17 +13633,17 @@
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
-        <v>675</v>
+        <v>698</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
-        <v>676</v>
+        <v>699</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
-        <v>677</v>
+        <v>700</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
@@ -13703,17 +13656,17 @@
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>678</v>
+        <v>701</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
-        <v>679</v>
+        <v>702</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
-        <v>680</v>
+        <v>703</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
@@ -13728,17 +13681,17 @@
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
-        <v>681</v>
+        <v>704</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
-        <v>682</v>
+        <v>705</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
-        <v>683</v>
+        <v>706</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
@@ -13794,12 +13747,12 @@
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
-        <v>684</v>
+        <v>707</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
-        <v>668</v>
+        <v>694</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
@@ -13817,17 +13770,17 @@
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
-        <v>685</v>
+        <v>708</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>218</v>
+        <v>709</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
-        <v>686</v>
+        <v>710</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
@@ -13835,7 +13788,7 @@
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="15" t="s">
-        <v>687</v>
+        <v>658</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
@@ -13845,7 +13798,7 @@
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
@@ -13855,7 +13808,7 @@
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="15" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
@@ -13881,27 +13834,27 @@
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="14" t="s">
-        <v>655</v>
+        <v>681</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="14" t="s">
-        <v>656</v>
+        <v>682</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
-        <v>657</v>
+        <v>683</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="14" t="s">
-        <v>658</v>
+        <v>684</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="14" t="s">
-        <v>261</v>
+        <v>467</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
@@ -13940,17 +13893,17 @@
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="14" t="s">
-        <v>690</v>
+        <v>711</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="14" t="s">
-        <v>691</v>
+        <v>712</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="14" t="s">
-        <v>692</v>
+        <v>713</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
@@ -13963,17 +13916,17 @@
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="14" t="s">
-        <v>693</v>
+        <v>714</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="14" t="s">
-        <v>694</v>
+        <v>715</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="14" t="s">
-        <v>695</v>
+        <v>716</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
@@ -13988,17 +13941,17 @@
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="14" t="s">
-        <v>696</v>
+        <v>717</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="14" t="s">
-        <v>697</v>
+        <v>718</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="14" t="s">
-        <v>698</v>
+        <v>719</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
@@ -14011,17 +13964,17 @@
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="14" t="s">
-        <v>699</v>
+        <v>104</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="14" t="s">
-        <v>700</v>
+        <v>668</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="14" t="s">
-        <v>701</v>
+        <v>720</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
@@ -14054,12 +14007,12 @@
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="14" t="s">
-        <v>702</v>
+        <v>721</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="14" t="s">
-        <v>668</v>
+        <v>694</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
@@ -14077,17 +14030,17 @@
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="14" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="14" t="s">
-        <v>704</v>
+        <v>723</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="14" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
@@ -14095,7 +14048,7 @@
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="15" t="s">
-        <v>706</v>
+        <v>661</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
@@ -14105,7 +14058,7 @@
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
-        <v>707</v>
+        <v>662</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
@@ -14115,7 +14068,7 @@
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="15" t="s">
-        <v>708</v>
+        <v>663</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
@@ -14141,27 +14094,27 @@
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="14" t="s">
-        <v>655</v>
+        <v>681</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="14" t="s">
-        <v>656</v>
+        <v>682</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="14" t="s">
-        <v>657</v>
+        <v>683</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="14" t="s">
-        <v>658</v>
+        <v>684</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="14" t="s">
-        <v>261</v>
+        <v>467</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
@@ -14200,22 +14153,22 @@
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="14" t="s">
-        <v>709</v>
+        <v>725</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="14" t="s">
-        <v>710</v>
+        <v>726</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="14" t="s">
-        <v>711</v>
+        <v>727</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="14" t="s">
-        <v>712</v>
+        <v>728</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
@@ -14228,17 +14181,17 @@
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="14" t="s">
-        <v>713</v>
+        <v>729</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="14" t="s">
-        <v>714</v>
+        <v>730</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="14" t="s">
-        <v>715</v>
+        <v>731</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
@@ -14253,17 +14206,17 @@
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="14" t="s">
-        <v>716</v>
+        <v>732</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="14" t="s">
-        <v>717</v>
+        <v>733</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="14" t="s">
-        <v>718</v>
+        <v>734</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
@@ -14281,17 +14234,17 @@
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="14" t="s">
-        <v>719</v>
+        <v>664</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="14" t="s">
-        <v>720</v>
+        <v>735</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="14" t="s">
-        <v>721</v>
+        <v>736</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
@@ -14324,12 +14277,12 @@
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="14" t="s">
-        <v>722</v>
+        <v>737</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="14" t="s">
-        <v>668</v>
+        <v>694</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
@@ -14347,17 +14300,17 @@
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="14" t="s">
-        <v>723</v>
+        <v>738</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="14" t="s">
-        <v>724</v>
+        <v>739</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="14" t="s">
-        <v>725</v>
+        <v>740</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
@@ -14365,7 +14318,7 @@
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="15" t="s">
-        <v>726</v>
+        <v>665</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
@@ -14375,7 +14328,7 @@
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
-        <v>727</v>
+        <v>666</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
@@ -14385,7 +14338,7 @@
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="15" t="s">
-        <v>728</v>
+        <v>667</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
@@ -14411,27 +14364,27 @@
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="14" t="s">
-        <v>655</v>
+        <v>681</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="14" t="s">
-        <v>656</v>
+        <v>682</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="14" t="s">
-        <v>657</v>
+        <v>683</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="14" t="s">
-        <v>658</v>
+        <v>684</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="14" t="s">
-        <v>261</v>
+        <v>467</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
@@ -14470,22 +14423,22 @@
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="14" t="s">
-        <v>729</v>
+        <v>741</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="14" t="s">
-        <v>730</v>
+        <v>742</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="14" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="14" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
@@ -14498,17 +14451,17 @@
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="14" t="s">
-        <v>733</v>
+        <v>745</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="14" t="s">
-        <v>734</v>
+        <v>746</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="14" t="s">
-        <v>735</v>
+        <v>747</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
@@ -14523,17 +14476,17 @@
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="14" t="s">
-        <v>736</v>
+        <v>748</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="14" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="14" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
@@ -14551,17 +14504,17 @@
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="14" t="s">
-        <v>739</v>
+        <v>751</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="14" t="s">
-        <v>740</v>
+        <v>752</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="14" t="s">
-        <v>741</v>
+        <v>753</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
@@ -14594,12 +14547,12 @@
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="14" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="14" t="s">
-        <v>668</v>
+        <v>694</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
@@ -14617,17 +14570,17 @@
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="14" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="14" t="s">
-        <v>744</v>
+        <v>756</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="14" t="s">
-        <v>745</v>
+        <v>757</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
@@ -14635,7 +14588,7 @@
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="15" t="s">
-        <v>746</v>
+        <v>669</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
@@ -14645,7 +14598,7 @@
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
-        <v>747</v>
+        <v>670</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
@@ -14655,7 +14608,7 @@
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="15" t="s">
-        <v>748</v>
+        <v>671</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
@@ -14681,27 +14634,27 @@
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="14" t="s">
-        <v>655</v>
+        <v>681</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="14" t="s">
-        <v>656</v>
+        <v>682</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="14" t="s">
-        <v>657</v>
+        <v>683</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="14" t="s">
-        <v>658</v>
+        <v>684</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="14" t="s">
-        <v>261</v>
+        <v>467</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
@@ -14740,27 +14693,27 @@
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="14" t="s">
-        <v>749</v>
+        <v>758</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="14" t="s">
-        <v>750</v>
+        <v>759</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="14" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="14" t="s">
-        <v>752</v>
+        <v>761</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="14" t="s">
-        <v>753</v>
+        <v>762</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
@@ -14773,17 +14726,17 @@
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="14" t="s">
-        <v>754</v>
+        <v>763</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="14" t="s">
-        <v>755</v>
+        <v>764</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="14" t="s">
-        <v>756</v>
+        <v>765</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
@@ -14798,17 +14751,17 @@
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="14" t="s">
-        <v>757</v>
+        <v>766</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="14" t="s">
-        <v>758</v>
+        <v>767</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="14" t="s">
-        <v>759</v>
+        <v>768</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
@@ -14826,22 +14779,22 @@
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" s="14" t="s">
-        <v>760</v>
+        <v>769</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="14" t="s">
-        <v>761</v>
+        <v>770</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="14" t="s">
-        <v>762</v>
+        <v>771</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" s="14" t="s">
-        <v>763</v>
+        <v>736</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
@@ -14869,17 +14822,17 @@
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" s="14" t="s">
-        <v>449</v>
+        <v>411</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="14" t="s">
-        <v>764</v>
+        <v>772</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="14" t="s">
-        <v>765</v>
+        <v>694</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
@@ -14897,17 +14850,17 @@
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" s="14" t="s">
-        <v>766</v>
+        <v>773</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="14" t="s">
-        <v>767</v>
+        <v>774</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="14" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
@@ -14915,7 +14868,7 @@
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="15" t="s">
-        <v>769</v>
+        <v>672</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
@@ -14925,7 +14878,7 @@
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" s="7" t="s">
-        <v>770</v>
+        <v>673</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
@@ -14935,7 +14888,7 @@
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="15" t="s">
-        <v>771</v>
+        <v>674</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
@@ -14961,27 +14914,27 @@
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" s="14" t="s">
-        <v>655</v>
+        <v>681</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" s="14" t="s">
-        <v>656</v>
+        <v>682</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" s="14" t="s">
-        <v>657</v>
+        <v>683</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" s="14" t="s">
-        <v>658</v>
+        <v>684</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" s="14" t="s">
-        <v>261</v>
+        <v>467</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
@@ -15020,27 +14973,27 @@
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" s="14" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" s="14" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" s="14" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" s="14" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" s="14" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
@@ -15053,17 +15006,17 @@
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" s="14" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" s="14" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" s="14" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
@@ -15078,17 +15031,17 @@
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" s="14" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" s="14" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" s="14" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
@@ -15106,22 +15059,22 @@
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" s="14" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" s="14" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" s="14" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" s="14" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
@@ -15149,17 +15102,17 @@
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" s="14" t="s">
-        <v>511</v>
+        <v>411</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" s="14" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" s="14" t="s">
-        <v>788</v>
+        <v>694</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
@@ -15177,17 +15130,17 @@
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" s="14" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" s="14" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" s="14" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
@@ -15195,7 +15148,7 @@
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" s="15" t="s">
-        <v>792</v>
+        <v>675</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
@@ -15205,7 +15158,7 @@
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" s="7" t="s">
-        <v>793</v>
+        <v>676</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
@@ -15215,7 +15168,7 @@
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" s="15" t="s">
-        <v>794</v>
+        <v>677</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
@@ -15241,27 +15194,27 @@
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" s="14" t="s">
-        <v>655</v>
+        <v>681</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" s="14" t="s">
-        <v>656</v>
+        <v>682</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" s="14" t="s">
-        <v>657</v>
+        <v>683</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" s="14" t="s">
-        <v>658</v>
+        <v>684</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" s="14" t="s">
-        <v>261</v>
+        <v>467</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
@@ -15386,7 +15339,7 @@
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" s="14" t="s">
-        <v>306</v>
+        <v>124</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
@@ -15439,7 +15392,7 @@
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" s="14" t="s">
-        <v>511</v>
+        <v>411</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
@@ -15449,7 +15402,7 @@
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" s="14" t="s">
-        <v>788</v>
+        <v>694</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
@@ -15485,7 +15438,7 @@
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" s="15" t="s">
-        <v>816</v>
+        <v>678</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
@@ -15495,7 +15448,7 @@
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464" s="7" t="s">
-        <v>817</v>
+        <v>679</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
@@ -15505,7 +15458,7 @@
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" s="15" t="s">
-        <v>818</v>
+        <v>680</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
@@ -15531,27 +15484,27 @@
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" s="14" t="s">
-        <v>655</v>
+        <v>681</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" s="14" t="s">
-        <v>656</v>
+        <v>682</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" s="14" t="s">
-        <v>657</v>
+        <v>683</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" s="14" t="s">
-        <v>658</v>
+        <v>684</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" s="14" t="s">
-        <v>261</v>
+        <v>467</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
@@ -15585,42 +15538,42 @@
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484" s="14" t="s">
-        <v>819</v>
+        <v>48</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" s="14" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486" s="14" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" s="14" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" s="14" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" s="14" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" s="14" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" s="14" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
@@ -15633,17 +15586,17 @@
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494" s="14" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" s="14" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" s="14" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
@@ -15658,17 +15611,17 @@
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499" s="14" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500" s="14" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501" s="14" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
@@ -15686,32 +15639,32 @@
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505" s="14" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506" s="14" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A507" s="14" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508" s="14" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509" s="14" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510" s="14" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
@@ -15739,17 +15692,17 @@
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516" s="14" t="s">
-        <v>511</v>
+        <v>411</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517" s="14" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518" s="14" t="s">
-        <v>788</v>
+        <v>694</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
@@ -15767,17 +15720,17 @@
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522" s="14" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523" s="14" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524" s="14" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
